--- a/FinalRelease/ST/系统测试用例.xlsx
+++ b/FinalRelease/ST/系统测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\se\本科SE\文档模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SJTU\大二小学期\软件工程原理与实践\Project\FinalRelease\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F379B30-A141-4640-BF54-754A58CFFCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE7DFC-8A3B-4406-856F-2848D91FABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="17253" windowHeight="10133" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2400" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <definedName name="界面测试用例常用测试项">常用测试方法!#REF!</definedName>
     <definedName name="压力测试用例常用测试项">常用测试方法!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="183">
   <si>
     <t>仅供收件方查阅</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -363,85 +374,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XXXXXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project ID_PI_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0066FF"/>
-        <rFont val="华文细黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> System Test Case Form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="48"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="华文细黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统测试用例</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3366FF"/>
-        <rFont val="微软雅黑"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作者名</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户注册</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>测试注册正常数据是否成功</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -450,309 +386,15 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册成功</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>测试注册非法数据是否成功</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入用户名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"xiaoming",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"123456"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，重复密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"654321",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"xiaoming163.com"
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击注册按钮</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次密码不一致，邮箱格式错误</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论回复功能测试正常</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>平均事务响应时间小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>系统部署测试</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>系统能够正常访问和操作</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/11/31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输入用户名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>"xiaoming",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:"123456", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重复密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:"123456", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:"xiaoming@163.com"
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击注册按钮</t>
-    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -958,478 +600,6 @@
   </si>
   <si>
     <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-001</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-004</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复评论性能测试</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LoadRunner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>录制脚本执行登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">访问并回复评论。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行压力测试，设置最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线人数和同时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个并发数</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-005</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LoadRunner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>录制脚本执行登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">访问并回复评论。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行压力测试，设置最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线人数和同时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个并发数</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LoadRunner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>录制脚本执行登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">访问并回复评论。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>执行压力测试，设置最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线人数和同时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个并发数</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
@@ -1446,80 +616,6 @@
         <charset val="134"/>
       </rPr>
       <t>系统</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">在应用服务器上部署操作系统、数据库和应用系统
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行数据库脚本和初始数据脚本，建立数据库</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级安装系统</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>已安装系统</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">在应用服务器上部署应用系统
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行数据库脚本和初始数据脚本，建立数据库</t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -1647,196 +743,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人在线与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并发用户下提交回复【常情】</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人在线与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并发用户下的提交回复【峰值】</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人在线与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并发用户下的提交回复【压力测试】</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-006</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-007</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 连续运行系统7天，正常使用系统；
-2. 观察系统的故障发生和处理情况，计算系统平均故障间隔时间，以及故障恢复的平均用时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1858,75 +765,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MBTF&gt;5天
-MTTR&lt;2小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1. 强制系统服务器断电重启;
-2. 观察系统是否能及时地恢复运行，数据库中的数据是否因此留下了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>脏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">数据。
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统在10分钟内完成重启；数据库中的数据正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>自然方式可靠性测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试7*24可靠性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障注入方式可靠性测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安全性测试</t>
   </si>
   <si>
@@ -1934,10 +776,6 @@
   </si>
   <si>
     <t>易用性测试</t>
-  </si>
-  <si>
-    <t>测试断电重启下系统的可靠性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>权限控制</t>
@@ -1949,33 +787,1246 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 不同的角色login;
+    <t>鉴权正确
+授权正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器兼容性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不同浏览器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面正常
+排版合理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试信息显示和反馈是否准确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息显示检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用主流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浏览器及其主要版本访问系统，包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chrome 125+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Firefox 126+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Edge 125+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Safari 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作系统各功能，检查系统的所有界面是否正常显示，排版是否合理。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 操作系统各功能
+2. 检查每个功能的信息显示和反馈是否准确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易学性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户不需要培训就能使用系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息显示和反馈准确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手不需要培训就能使用系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线车票服务系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE25Project-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mini2306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> System Test Case Form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="48"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Mini12306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="华文细黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统测试用例</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄星铭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄星铭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-001</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-002</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-003</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-004</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-005</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-006</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-007</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-008</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-009</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-010</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-011</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-012</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-013</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-014</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入合规用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交注册</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试正常用户注册流程</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统可访问</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册成功，并在数据库中新增User</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Null(无缺陷)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入非法用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交注册</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名错误或手机/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱格式错误</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入合规用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再次输入密码不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交注册</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示2次密码不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车票预订</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>测试跨天车票冲突检测</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出发10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到达的车票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尝试预订时间冲突车票</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示该ID已存在该时间车票，阻止预订</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车票改签</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户改签正常流程</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>车票候补</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户候补正常流程</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录且已至少存在一张状态为“已支付”的订单</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择一个“已支付”状态的订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击“改签”并选择要改签的乘车人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择要改签的新车次或坐席</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认信息无误后确认改签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成支付流程</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示改签成功并生成新车票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已登录且购买的车次区间坐席库存已售罄</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择库存为0的区间车此席别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交候补订单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">拥有该车次区间席别的用户B将对应车票退票
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交候补订单后状态为“待兑现”。用户B退票后用户A的候补订单变为“已兑现”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发处理</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并发用户下的购票请求【压力测试】</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>购票功能测试正常且JMeter配置完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JMeter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">执行购票请求。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行压力测试，设置模拟1000用户同时发起购票请求</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均响应时间&lt;2s，错误率≈0</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付功能测试正常且JMeter配置完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并发用户下的查询请求【压力测试】</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>JMeter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">执行支付请求。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行压力测试，设置模拟1000用户同时发起购票请求</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均响应时间&lt;2s，错误率≈0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万级车次查询响应</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis与数据库预载30000车次数据	</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行复杂条件查询（日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车次组合）</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应时间&lt;1s</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试12h可靠性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 连续运行系统12小时，正常使用系统；
+2. 观察系统的故障发生和处理情况，计算系统平均故障间隔时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常运行时间接近12h，无重大故障，小故障不超过1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 未登录访客与已登录系统合法用户;
 2. 检查该角色所有授权的动作是否都能做，所有非授权的信息是否都无法看到。
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鉴权正确
-授权正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注入测试</t>
-    </r>
+    <t>数据安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL注入攻击防御测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单查询接口正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在查询参数注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>' OR 1=1--</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回空数据集，无敏感信息泄露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付凭证篡改测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成有效支付订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改支付金额参数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝支付请求，返回签名错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备兼容性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不同设备分辨率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1989,313 +2040,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">确定输入点
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">基础探测
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">联合查询
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">报错注入
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">布尔盲注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">时间盲注
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sqlmap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">快速检测
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">8. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>记录漏洞</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无SQL数据泄露</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-008</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-009</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器兼容性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试不同浏览器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试不同浏览器分辨率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面正常
-排版合理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-010</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xxx(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)-testcase-011</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试信息显示和反馈是否准确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息显示检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采用不同分辨率下访问系统，包括</t>
+      <t>采用不同分辨率（包括手机）访问系统，包括</t>
     </r>
     <r>
       <rPr>
@@ -2345,7 +2090,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>采用主流</t>
+      <t xml:space="preserve">让同学和朋友新手使用系统
+</t>
     </r>
     <r>
       <rPr>
@@ -2353,16 +2099,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浏览器及其主要版本访问系统，包括</t>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观察是否能操作所有功能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">在应用端上部署服务系统和数据库
+</t>
     </r>
     <r>
       <rPr>
@@ -2370,141 +2132,51 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Chrome 125+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Firefox 126+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Edge 125+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Safari 17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作系统各功能，检查系统的所有界面是否正常显示，排版是否合理。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 操作系统各功能
-2. 检查每个功能的信息显示和反馈是否准确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易学性测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户不需要培训就能使用系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">让学生和老师新手使用系统
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>观察是否能操作所有功能</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息显示和反馈准确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手不需要培训就能使用系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行数据库脚本和初始数据脚本，建立数据库</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-016</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-017</t>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-018</t>
+  </si>
+  <si>
+    <t>超卖可靠性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试超卖问题可靠性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购票功能测试正常且JMeter配置完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.采用JMeter执行购票请求。
+2.将数据库车票库存设置为300，设置模拟1000用户同时发起购票请求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误率=70%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechPrototype-testcase-019</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2713,9 +2385,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2935,7 +2636,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3073,9 +2774,69 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3085,9 +2846,6 @@
     <xf numFmtId="176" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3111,63 +2869,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3179,6 +2880,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3608,92 +3325,92 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.71875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="7" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="6" customWidth="1"/>
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="74" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
-      <c r="B3" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="75" t="s">
+      <c r="B3" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="30.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="71"/>
+      <c r="B5" s="54">
+        <v>10</v>
+      </c>
+      <c r="C5" s="52"/>
       <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="57"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="59" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
@@ -3701,69 +3418,75 @@
       <c r="F6" s="62"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="30.7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="66"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>47</v>
+      <c r="F7" s="25">
+        <v>45855</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="30.7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="66"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>47</v>
+      <c r="F8" s="25">
+        <v>45856</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="30.7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="66"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>47</v>
+      <c r="F9" s="25">
+        <v>45856</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3776,12 +3499,12 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="56"/>
+      <c r="B12" s="75">
+        <v>45856</v>
+      </c>
+      <c r="C12" s="75"/>
       <c r="D12" s="36" t="s">
         <v>7</v>
       </c>
@@ -3789,73 +3512,73 @@
         <v>42</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="21" t="s">
         <v>18</v>
       </c>
@@ -3869,179 +3592,176 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="5">
-        <f>COUNTIF('Test Cases'!C:C,B20)</f>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5">
-        <f>SUMPRODUCT(('Test Cases'!C:C=B20)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" ref="F20:F27" si="0">IF(D20,E20/D20,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="5">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>3</v>
       </c>
       <c r="E21" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B21)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="23">
         <f>IF(D21,E21/D21,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="5">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>2</v>
       </c>
       <c r="E22" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B22)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="23">
         <f>IF(D22,E22/D22,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="5">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B23)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="23">
         <f>IF(D23,E23/D23,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="5">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>2</v>
       </c>
       <c r="E24" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B24)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="23">
         <f>IF(D24,E24/D24,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="5">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>2</v>
       </c>
       <c r="E25" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B25)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="23">
         <f>IF(D25,E25/D25,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="5">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
         <f>SUMPRODUCT(('Test Cases'!C:C=B26)*('Test Cases'!J:J="Y"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="5">
         <f>SUM(D20:D26)</f>
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E27" s="5">
-        <f>COUNTIF('Test Cases'!J:J,"Y")</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F27" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4050,7 +3770,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="12"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -4059,7 +3779,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="12"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -4068,14 +3788,14 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>9</v>
       </c>
@@ -4084,39 +3804,24 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B27:C27"/>
@@ -4133,6 +3838,21 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4148,37 +3868,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="15.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.71875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="17.71875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="11.71875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="31" customWidth="1"/>
-    <col min="7" max="7" width="21.71875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="31" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="15" style="31" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="31" customWidth="1"/>
     <col min="12" max="12" width="5" style="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21.5" style="31" customWidth="1"/>
-    <col min="14" max="39" width="13.109375" style="2"/>
-    <col min="40" max="40" width="13.21875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="4.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="13.109375" style="2"/>
+    <col min="14" max="39" width="13.125" style="2"/>
+    <col min="40" max="40" width="13.25" style="2" customWidth="1"/>
+    <col min="41" max="41" width="4.375" style="2" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="13.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="9.35" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="9.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
@@ -4195,7 +3915,7 @@
       <c r="L1" s="80"/>
       <c r="M1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -4210,7 +3930,7 @@
       <c r="L2" s="80"/>
       <c r="M2" s="80"/>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78"/>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -4225,557 +3945,793 @@
       <c r="L3" s="80"/>
       <c r="M3" s="80"/>
     </row>
-    <row r="4" spans="1:13" ht="46" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L4" s="35"/>
       <c r="M4" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>50</v>
+      <c r="D5" s="81" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="73.349999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+        <v>122</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="27"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="87.35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="30" t="s">
-        <v>4</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="30"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="87.7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="30" t="s">
-        <v>4</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="30"/>
       <c r="M8" s="27"/>
     </row>
-    <row r="9" spans="1:13" s="26" customFormat="1" ht="87.7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" s="26" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>103</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="30" t="s">
-        <v>4</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="30"/>
       <c r="M9" s="27"/>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="86" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+        <v>140</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L10" s="30"/>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="1:13" s="26" customFormat="1" ht="100.7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="B12" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" s="26" customFormat="1" ht="86" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="30"/>
+      <c r="L12" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="M12" s="27"/>
     </row>
-    <row r="13" spans="1:13" s="26" customFormat="1" ht="117.35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>124</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="M13" s="27"/>
     </row>
-    <row r="14" spans="1:13" s="26" customFormat="1" ht="116.35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" s="26" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>140</v>
+        <v>72</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
     </row>
-    <row r="15" spans="1:13" s="26" customFormat="1" ht="115.35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" s="26" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>139</v>
+        <v>179</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+        <v>181</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
     </row>
-    <row r="16" spans="1:13" s="26" customFormat="1" ht="43" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" s="26" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
     </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>144</v>
+        <v>161</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>120</v>
+      </c>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" ht="72.349999999999994" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" s="26" customFormat="1" ht="114" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" s="26" customFormat="1" ht="117" x14ac:dyDescent="0.15">
+      <c r="A20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="D21" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" s="26" customFormat="1" ht="43.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="30" t="s">
+      <c r="D23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" ht="58" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C21" s="27"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C22" s="27"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C23" s="27"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4786,13 +4742,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$W$5:$W$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E19" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E23" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K19" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K23" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Null(无缺陷),Urgent(严重错误),High(主要错误),Medium(一般错误),Low(微小错误)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J64560" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J64564" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0100-000004000000}">
@@ -4813,75 +4769,75 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="40" customWidth="1"/>
-    <col min="2" max="2" width="76.609375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="76.625" style="40" customWidth="1"/>
     <col min="3" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="36.35" customHeight="1" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="49.85" customHeight="1" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="49.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="70" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63.75" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="42" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="70" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.35" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/FinalRelease/ST/系统测试用例.xlsx
+++ b/FinalRelease/ST/系统测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SJTU\大二小学期\软件工程原理与实践\Project\FinalRelease\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE7DFC-8A3B-4406-856F-2848D91FABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DE579-7274-4AB7-B91C-64400E82A8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2400" windowWidth="28800" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -765,10 +765,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自然方式可靠性测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安全性测试</t>
   </si>
   <si>
@@ -2177,6 +2173,10 @@
   </si>
   <si>
     <t>TechPrototype-testcase-019</t>
+  </si>
+  <si>
+    <t>持久可靠性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2774,6 +2774,79 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2812,63 +2885,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2880,22 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3324,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3342,80 +3342,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="55" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
-      <c r="B3" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="57"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
-      <c r="B5" s="54">
+      <c r="B5" s="77">
         <v>10</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="57"/>
+      <c r="E5" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="80"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="B6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -3423,10 +3423,10 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="66"/>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="68"/>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3440,10 +3440,10 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="66"/>
+      <c r="C8" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="68"/>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3457,10 +3457,10 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="66"/>
+      <c r="C9" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="68"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -3471,22 +3471,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
-      <c r="B12" s="75">
+      <c r="B12" s="60">
         <v>45856</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="36" t="s">
         <v>7</v>
       </c>
@@ -3512,15 +3512,15 @@
         <v>42</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -3528,8 +3528,8 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -3537,8 +3537,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -3546,8 +3546,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -3555,8 +3555,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -3564,21 +3564,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="21" t="s">
         <v>18</v>
       </c>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="20" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="5">
         <v>56</v>
       </c>
@@ -3614,10 +3614,10 @@
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="5">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>3</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="5">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>2</v>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="67"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="5">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>3</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="5">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>2</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="67"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="5">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>2</v>
@@ -3724,10 +3724,10 @@
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="5">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>1</v>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="5">
         <f>SUM(D20:D26)</f>
         <v>69</v>
@@ -3822,6 +3822,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B27:C27"/>
@@ -3838,21 +3853,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -3870,11 +3870,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3899,51 +3899,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="9.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
@@ -3986,7 +3986,7 @@
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>43</v>
@@ -3994,29 +3994,29 @@
       <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="81" t="s">
-        <v>115</v>
+      <c r="D5" s="46" t="s">
+        <v>114</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>2</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="6" spans="1:13" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>43</v>
@@ -4043,19 +4043,19 @@
         <v>45</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>122</v>
-      </c>
       <c r="I6" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="K6" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L6" s="30" t="s">
         <v>3</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="7" spans="1:13" s="26" customFormat="1" ht="75" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>43</v>
@@ -4082,167 +4082,167 @@
         <v>45</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="I7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>130</v>
-      </c>
       <c r="I8" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" s="26" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>137</v>
-      </c>
       <c r="I9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="K9" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="87" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="I10" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="K10" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>142</v>
+      <c r="D11" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>145</v>
-      </c>
       <c r="I11" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="K11" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>4</v>
@@ -4251,37 +4251,37 @@
     </row>
     <row r="12" spans="1:13" s="26" customFormat="1" ht="70.5" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>147</v>
+      <c r="D12" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>149</v>
-      </c>
       <c r="I12" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="K12" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>4</v>
@@ -4290,37 +4290,37 @@
     </row>
     <row r="13" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="H13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>154</v>
-      </c>
       <c r="I13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="K13" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>4</v>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="14" spans="1:13" s="26" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>73</v>
@@ -4347,72 +4347,72 @@
         <v>72</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="I14" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="K14" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" s="26" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="H15" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>181</v>
-      </c>
       <c r="I15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="K15" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" s="26" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>73</v>
@@ -4421,109 +4421,109 @@
         <v>72</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="K16" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="H17" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>163</v>
-      </c>
       <c r="I17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="K17" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L17" s="30"/>
       <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="H18" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="I18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="K18" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" s="26" customFormat="1" ht="114" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>73</v>
@@ -4532,137 +4532,137 @@
         <v>72</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="K19" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" s="26" customFormat="1" ht="117" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="E20" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="K20" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" s="26" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I21" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="K21" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L21" s="30"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:13" s="26" customFormat="1" ht="43.5" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L22" s="30"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" s="26" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>47</v>
@@ -4678,19 +4678,19 @@
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>48</v>
       </c>
       <c r="I23" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="K23" s="27" t="s">
         <v>119</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>120</v>
       </c>
       <c r="L23" s="30" t="s">
         <v>4</v>
